--- a/Doc/CS673_SPPP_RiskManagement_team1.xlsx
+++ b/Doc/CS673_SPPP_RiskManagement_team1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
 You should also feel free to add other risks. Exemplary analysis is also added.</t>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>all members have attended meetings and kept up with work so far</t>
+  </si>
+  <si>
+    <t>Conflict on speciality</t>
+  </si>
+  <si>
+    <t>members may have conflict in their speciality</t>
+  </si>
+  <si>
+    <t>Talk about the speciality before assigning each roles to every team members</t>
+  </si>
+  <si>
+    <t>all members are not having any conflict</t>
   </si>
   <si>
     <t>Communication</t>
@@ -569,39 +581,37 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" ht="90.0" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="4">
         <v>4.0</v>
       </c>
-      <c r="E6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>64.0</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="5">
         <v>44854.0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>20</v>
@@ -622,42 +632,42 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" ht="90.0" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="I7" s="5">
+        <v>44854.0</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="5">
-        <v>44816.0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -676,7 +686,9 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
@@ -696,7 +708,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" s="5">
         <v>44816.0</v>
@@ -708,7 +720,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -727,9 +739,7 @@
       <c r="AA8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -737,19 +747,19 @@
         <v>47</v>
       </c>
       <c r="D9" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="4">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5">
         <v>44816.0</v>
@@ -758,10 +768,10 @@
         <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -781,40 +791,40 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="4">
         <v>2.0</v>
       </c>
       <c r="E10" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F10" s="4">
         <v>2.0</v>
       </c>
       <c r="G10" s="4">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I10" s="5">
-        <v>44854.0</v>
+        <v>44816.0</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -833,7 +843,9 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
@@ -841,19 +853,19 @@
         <v>56</v>
       </c>
       <c r="D11" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="4">
         <v>3.0</v>
       </c>
-      <c r="E11" s="4">
-        <v>4.0</v>
-      </c>
       <c r="F11" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" s="4">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I11" s="5">
         <v>44854.0</v>
@@ -884,14 +896,12 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="4">
         <v>3.0</v>
@@ -906,16 +916,16 @@
         <v>36.0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I12" s="5">
         <v>44854.0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>20</v>
@@ -937,18 +947,42 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="5">
+        <v>44854.0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -966,17 +1000,18 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -994,15 +1029,15 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="2"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="6"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1030,7 +1065,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="6"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1050,7 +1085,7 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
+      <c r="A17" s="18"/>
       <c r="C17" s="6"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1059,8 +1094,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -1087,8 +1122,8 @@
       <c r="H18" s="6"/>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -1115,8 +1150,8 @@
       <c r="H19" s="6"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -1163,18 +1198,17 @@
     </row>
     <row r="21">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="19"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -1192,18 +1226,18 @@
     </row>
     <row r="22">
       <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -1220,7 +1254,7 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="15"/>
@@ -1308,6 +1342,8 @@
     </row>
     <row r="26">
       <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1335,8 +1371,6 @@
     </row>
     <row r="27">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -1367,8 +1401,8 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1393,15 +1427,15 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -1421,7 +1455,18 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -1439,20 +1484,24 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="A31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="15"/>
@@ -1463,22 +1512,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="17"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33">
       <c r="A33" s="6"/>
@@ -1490,10 +1524,10 @@
       <c r="G33" s="15"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -1540,6 +1574,17 @@
     </row>
     <row r="35">
       <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -1556,6 +1601,24 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
     </row>
+    <row r="36">
+      <c r="A36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
